--- a/Resumenes-compras-ventas/ABRIL2025.xlsx
+++ b/Resumenes-compras-ventas/ABRIL2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMITH\Desktop\Boletas\Resumenes-compras-ventas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD90510-FE9B-49F5-9360-1DA138EAD77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60093337-6C4D-45FA-89AB-AD5100E2274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8E214C43-BD88-477E-9EFF-80CD3094060B}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="D3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,14 +528,17 @@
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <f>44+30.3</f>
+        <v>74.3</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1">
         <f>SUM(E8:E12)</f>
-        <v>105.56</v>
+        <v>179.86</v>
       </c>
       <c r="F13" s="1">
         <f>SUM(F8:F12)</f>
